--- a/Code/Results/Cases/Case_4_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011067492831624</v>
+        <v>1.036334033533864</v>
       </c>
       <c r="D2">
-        <v>1.025459436313205</v>
+        <v>1.03863106661284</v>
       </c>
       <c r="E2">
-        <v>1.028080334981072</v>
+        <v>1.050033362760966</v>
       </c>
       <c r="F2">
-        <v>1.03356920234979</v>
+        <v>1.057809145830273</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046511295659408</v>
+        <v>1.038928330697977</v>
       </c>
       <c r="J2">
-        <v>1.03292214204674</v>
+        <v>1.041442918201266</v>
       </c>
       <c r="K2">
-        <v>1.036575119147668</v>
+        <v>1.041418550297654</v>
       </c>
       <c r="L2">
-        <v>1.039161850977638</v>
+        <v>1.052788765023705</v>
       </c>
       <c r="M2">
-        <v>1.044579865731824</v>
+        <v>1.060543099951803</v>
       </c>
       <c r="N2">
-        <v>1.014784374739798</v>
+        <v>1.017755959234141</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014875242209928</v>
+        <v>1.037148885291334</v>
       </c>
       <c r="D3">
-        <v>1.028123090050769</v>
+        <v>1.039222024174919</v>
       </c>
       <c r="E3">
-        <v>1.031576393579119</v>
+        <v>1.050839500471663</v>
       </c>
       <c r="F3">
-        <v>1.037406518657292</v>
+        <v>1.058700438476468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047537693416723</v>
+        <v>1.039105434834454</v>
       </c>
       <c r="J3">
-        <v>1.034968446613515</v>
+        <v>1.041902369288703</v>
       </c>
       <c r="K3">
-        <v>1.038408344639745</v>
+        <v>1.04182013963994</v>
       </c>
       <c r="L3">
-        <v>1.041820581702966</v>
+        <v>1.053407284170311</v>
       </c>
       <c r="M3">
-        <v>1.047582142865394</v>
+        <v>1.061248105452836</v>
       </c>
       <c r="N3">
-        <v>1.015474534013466</v>
+        <v>1.017909832629264</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017295271698232</v>
+        <v>1.037676836105266</v>
       </c>
       <c r="D4">
-        <v>1.029818939070822</v>
+        <v>1.039604957942501</v>
       </c>
       <c r="E4">
-        <v>1.033803565821496</v>
+        <v>1.051362188868775</v>
       </c>
       <c r="F4">
-        <v>1.039851099289874</v>
+        <v>1.059278383898431</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048182233762942</v>
+        <v>1.039219202570195</v>
       </c>
       <c r="J4">
-        <v>1.036266676160087</v>
+        <v>1.042199675442888</v>
       </c>
       <c r="K4">
-        <v>1.039570318403677</v>
+        <v>1.042079840125888</v>
       </c>
       <c r="L4">
-        <v>1.043510436618448</v>
+        <v>1.053807915018418</v>
       </c>
       <c r="M4">
-        <v>1.049491219316677</v>
+        <v>1.061704871101677</v>
       </c>
       <c r="N4">
-        <v>1.015912250820534</v>
+        <v>1.018009363364923</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018302472924606</v>
+        <v>1.03789894944938</v>
       </c>
       <c r="D5">
-        <v>1.030525409548058</v>
+        <v>1.039766071945229</v>
       </c>
       <c r="E5">
-        <v>1.034731734117572</v>
+        <v>1.051582179737425</v>
       </c>
       <c r="F5">
-        <v>1.040869882131867</v>
+        <v>1.059521642128399</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0484485894295</v>
+        <v>1.039266831002108</v>
       </c>
       <c r="J5">
-        <v>1.036806413186584</v>
+        <v>1.042324664227439</v>
       </c>
       <c r="K5">
-        <v>1.040053141462384</v>
+        <v>1.042188979961262</v>
       </c>
       <c r="L5">
-        <v>1.044213739518398</v>
+        <v>1.053976436246721</v>
       </c>
       <c r="M5">
-        <v>1.050285972503561</v>
+        <v>1.061897032526103</v>
       </c>
       <c r="N5">
-        <v>1.016094195388213</v>
+        <v>1.018051197088238</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018470998475066</v>
+        <v>1.03793625275567</v>
       </c>
       <c r="D6">
-        <v>1.03064365479349</v>
+        <v>1.03979313118799</v>
       </c>
       <c r="E6">
-        <v>1.03488710762138</v>
+        <v>1.051619131933181</v>
       </c>
       <c r="F6">
-        <v>1.041040425151768</v>
+        <v>1.059562503202558</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048493043842746</v>
+        <v>1.039274816304753</v>
       </c>
       <c r="J6">
-        <v>1.036896687651405</v>
+        <v>1.042345650432769</v>
       </c>
       <c r="K6">
-        <v>1.040133880832359</v>
+        <v>1.042207302741454</v>
       </c>
       <c r="L6">
-        <v>1.04433141563191</v>
+        <v>1.054004737287767</v>
       </c>
       <c r="M6">
-        <v>1.050418962597639</v>
+        <v>1.061929305267852</v>
       </c>
       <c r="N6">
-        <v>1.0161246246212</v>
+        <v>1.018058220613274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017308769557747</v>
+        <v>1.037679803356991</v>
       </c>
       <c r="D7">
-        <v>1.029828404143476</v>
+        <v>1.039607110252408</v>
       </c>
       <c r="E7">
-        <v>1.033815999695572</v>
+        <v>1.051365127407121</v>
       </c>
       <c r="F7">
-        <v>1.039864746998874</v>
+        <v>1.059281633189875</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048185810820449</v>
+        <v>1.039219839768503</v>
       </c>
       <c r="J7">
-        <v>1.036273911680764</v>
+        <v>1.042201345545697</v>
       </c>
       <c r="K7">
-        <v>1.039576792017184</v>
+        <v>1.042081298609532</v>
       </c>
       <c r="L7">
-        <v>1.043519861878822</v>
+        <v>1.053810166431983</v>
       </c>
       <c r="M7">
-        <v>1.04950186929814</v>
+        <v>1.061707438235271</v>
       </c>
       <c r="N7">
-        <v>1.015914690047556</v>
+        <v>1.018009922385122</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012363611191836</v>
+        <v>1.036609273177214</v>
       </c>
       <c r="D8">
-        <v>1.026365473327509</v>
+        <v>1.038830669646201</v>
       </c>
       <c r="E8">
-        <v>1.029269245513624</v>
+        <v>1.050305579442256</v>
       </c>
       <c r="F8">
-        <v>1.034874167881658</v>
+        <v>1.058110108665586</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046862283839973</v>
+        <v>1.038988355402803</v>
       </c>
       <c r="J8">
-        <v>1.033619150689761</v>
+        <v>1.041598188902388</v>
       </c>
       <c r="K8">
-        <v>1.037199768839256</v>
+        <v>1.041554300588349</v>
       </c>
       <c r="L8">
-        <v>1.040066821038809</v>
+        <v>1.052997711130069</v>
       </c>
       <c r="M8">
-        <v>1.045601591752076</v>
+        <v>1.060781238760307</v>
       </c>
       <c r="N8">
-        <v>1.015019483154327</v>
+        <v>1.017807968568105</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003298984806366</v>
+        <v>1.034728201156323</v>
       </c>
       <c r="D9">
-        <v>1.020043113294353</v>
+        <v>1.037466731596302</v>
       </c>
       <c r="E9">
-        <v>1.020977546844855</v>
+        <v>1.048446749486801</v>
       </c>
       <c r="F9">
-        <v>1.025772786849475</v>
+        <v>1.056055159826786</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044375881692928</v>
+        <v>1.038574121112113</v>
       </c>
       <c r="J9">
-        <v>1.028735782858874</v>
+        <v>1.040535486386607</v>
       </c>
       <c r="K9">
-        <v>1.032819164395039</v>
+        <v>1.040624532118932</v>
       </c>
       <c r="L9">
-        <v>1.033739205471849</v>
+        <v>1.051569251894725</v>
       </c>
       <c r="M9">
-        <v>1.038461113387647</v>
+        <v>1.059153673683926</v>
       </c>
       <c r="N9">
-        <v>1.013371780325615</v>
+        <v>1.017451847765995</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9969982960279227</v>
+        <v>1.033477844526655</v>
       </c>
       <c r="D10">
-        <v>1.015668432451021</v>
+        <v>1.036560401690827</v>
       </c>
       <c r="E10">
-        <v>1.015244675786213</v>
+        <v>1.047213176459441</v>
       </c>
       <c r="F10">
-        <v>1.019479358210148</v>
+        <v>1.054691650001937</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042608719720518</v>
+        <v>1.03829375168985</v>
       </c>
       <c r="J10">
-        <v>1.025331516386832</v>
+        <v>1.039827184824818</v>
       </c>
       <c r="K10">
-        <v>1.029760436166753</v>
+        <v>1.040003999210201</v>
       </c>
       <c r="L10">
-        <v>1.029344032094416</v>
+        <v>1.050619184320068</v>
       </c>
       <c r="M10">
-        <v>1.033505593677101</v>
+        <v>1.058071768397853</v>
       </c>
       <c r="N10">
-        <v>1.012222622489444</v>
+        <v>1.017214292009874</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9942037220001679</v>
+        <v>1.032937323311209</v>
       </c>
       <c r="D11">
-        <v>1.013733477464915</v>
+        <v>1.036168675654407</v>
       </c>
       <c r="E11">
-        <v>1.012709608552014</v>
+        <v>1.046680389272509</v>
       </c>
       <c r="F11">
-        <v>1.01669611171947</v>
+        <v>1.054102791402141</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041816126692199</v>
+        <v>1.038171358226204</v>
       </c>
       <c r="J11">
-        <v>1.023819636888745</v>
+        <v>1.039520537825916</v>
       </c>
       <c r="K11">
-        <v>1.028400966053474</v>
+        <v>1.039735154013636</v>
       </c>
       <c r="L11">
-        <v>1.027395755576338</v>
+        <v>1.050208345245738</v>
       </c>
       <c r="M11">
-        <v>1.031309886085576</v>
+        <v>1.057604057189818</v>
       </c>
       <c r="N11">
-        <v>1.011712176142472</v>
+        <v>1.017111399963826</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9931552543372492</v>
+        <v>1.032736685324942</v>
       </c>
       <c r="D12">
-        <v>1.013008385094744</v>
+        <v>1.03602328126233</v>
       </c>
       <c r="E12">
-        <v>1.011759690029777</v>
+        <v>1.046482694387483</v>
       </c>
       <c r="F12">
-        <v>1.015653141297147</v>
+        <v>1.053884298013594</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04151747803258</v>
+        <v>1.038125747566546</v>
       </c>
       <c r="J12">
-        <v>1.023252147856192</v>
+        <v>1.039406644603453</v>
       </c>
       <c r="K12">
-        <v>1.027890537585629</v>
+        <v>1.039635271590648</v>
       </c>
       <c r="L12">
-        <v>1.026665008404035</v>
+        <v>1.05005582501328</v>
       </c>
       <c r="M12">
-        <v>1.030486473130413</v>
+        <v>1.057430444473538</v>
       </c>
       <c r="N12">
-        <v>1.011520567655147</v>
+        <v>1.017073177417809</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9933806344615588</v>
+        <v>1.032779716687396</v>
       </c>
       <c r="D13">
-        <v>1.013164212029828</v>
+        <v>1.036054463841747</v>
       </c>
       <c r="E13">
-        <v>1.011963831619766</v>
+        <v>1.046525091258022</v>
       </c>
       <c r="F13">
-        <v>1.015877282868388</v>
+        <v>1.053931154924291</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041581733380146</v>
+        <v>1.038135537906378</v>
       </c>
       <c r="J13">
-        <v>1.023374147429026</v>
+        <v>1.039431074652809</v>
       </c>
       <c r="K13">
-        <v>1.028000276658647</v>
+        <v>1.039656697655477</v>
       </c>
       <c r="L13">
-        <v>1.026822080931249</v>
+        <v>1.050088537308036</v>
       </c>
       <c r="M13">
-        <v>1.030663457757945</v>
+        <v>1.057467679711146</v>
       </c>
       <c r="N13">
-        <v>1.011561760351238</v>
+        <v>1.017081376450702</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9941172711057842</v>
+        <v>1.032920735735246</v>
       </c>
       <c r="D14">
-        <v>1.013673672424097</v>
+        <v>1.036156655052159</v>
       </c>
       <c r="E14">
-        <v>1.012631259113994</v>
+        <v>1.04666404353798</v>
       </c>
       <c r="F14">
-        <v>1.016610088555748</v>
+        <v>1.054084725866607</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041791527647952</v>
+        <v>1.038167591055572</v>
       </c>
       <c r="J14">
-        <v>1.023772849994745</v>
+        <v>1.03951112318306</v>
       </c>
       <c r="K14">
-        <v>1.028358886466262</v>
+        <v>1.039726898129675</v>
       </c>
       <c r="L14">
-        <v>1.027335497752568</v>
+        <v>1.050195736159226</v>
       </c>
       <c r="M14">
-        <v>1.031241984187629</v>
+        <v>1.057589703931103</v>
       </c>
       <c r="N14">
-        <v>1.011696379094803</v>
+        <v>1.01710824055223</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9945697394652558</v>
+        <v>1.033007640252857</v>
       </c>
       <c r="D15">
-        <v>1.0139867167721</v>
+        <v>1.036219633072918</v>
       </c>
       <c r="E15">
-        <v>1.013041374571163</v>
+        <v>1.046749683979199</v>
       </c>
       <c r="F15">
-        <v>1.017060369307576</v>
+        <v>1.054179377181573</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041920222463347</v>
+        <v>1.038187320431631</v>
       </c>
       <c r="J15">
-        <v>1.024017713641618</v>
+        <v>1.039560444972003</v>
       </c>
       <c r="K15">
-        <v>1.028579108054102</v>
+        <v>1.039770148167252</v>
       </c>
       <c r="L15">
-        <v>1.027650884966826</v>
+        <v>1.050261796047185</v>
       </c>
       <c r="M15">
-        <v>1.031597385848402</v>
+        <v>1.057664902510058</v>
       </c>
       <c r="N15">
-        <v>1.011779054020663</v>
+        <v>1.017124791914632</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9971823254066924</v>
+        <v>1.033513736068996</v>
       </c>
       <c r="D16">
-        <v>1.015795970662292</v>
+        <v>1.036586414598464</v>
       </c>
       <c r="E16">
-        <v>1.015411778929314</v>
+        <v>1.047248564570989</v>
       </c>
       <c r="F16">
-        <v>1.019662813276067</v>
+        <v>1.054730763440293</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042660733478882</v>
+        <v>1.038301853708245</v>
       </c>
       <c r="J16">
-        <v>1.025431038973199</v>
+        <v>1.039847537186017</v>
       </c>
       <c r="K16">
-        <v>1.029849905119396</v>
+        <v>1.040021838518751</v>
       </c>
       <c r="L16">
-        <v>1.029472357481964</v>
+        <v>1.050646462005564</v>
       </c>
       <c r="M16">
-        <v>1.033650235968509</v>
+        <v>1.058102825029851</v>
       </c>
       <c r="N16">
-        <v>1.012256222028231</v>
+        <v>1.01722112004898</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9988030469190431</v>
+        <v>1.033831436490975</v>
       </c>
       <c r="D17">
-        <v>1.01691980129298</v>
+        <v>1.036816681213555</v>
       </c>
       <c r="E17">
-        <v>1.016884311480878</v>
+        <v>1.047561864166889</v>
       </c>
       <c r="F17">
-        <v>1.021279405136629</v>
+        <v>1.055077049919294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043117812728298</v>
+        <v>1.038373432411392</v>
       </c>
       <c r="J17">
-        <v>1.026307300104055</v>
+        <v>1.040027637436918</v>
       </c>
       <c r="K17">
-        <v>1.030637529310918</v>
+        <v>1.04017967784993</v>
       </c>
       <c r="L17">
-        <v>1.030602635379041</v>
+        <v>1.050887900224841</v>
       </c>
       <c r="M17">
-        <v>1.034924340264021</v>
+        <v>1.058377727198678</v>
       </c>
       <c r="N17">
-        <v>1.012552044126693</v>
+        <v>1.01728153675678</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9997420193834694</v>
+        <v>1.034016831668549</v>
       </c>
       <c r="D18">
-        <v>1.017571404397948</v>
+        <v>1.036951061259334</v>
       </c>
       <c r="E18">
-        <v>1.017738156044528</v>
+        <v>1.047744737423374</v>
       </c>
       <c r="F18">
-        <v>1.022216754174193</v>
+        <v>1.055279182395348</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043381784600002</v>
+        <v>1.038415087330198</v>
       </c>
       <c r="J18">
-        <v>1.02681477645948</v>
+        <v>1.040132691822104</v>
       </c>
       <c r="K18">
-        <v>1.0310935722313</v>
+        <v>1.040271728271274</v>
       </c>
       <c r="L18">
-        <v>1.031257572602897</v>
+        <v>1.051028779671404</v>
       </c>
       <c r="M18">
-        <v>1.035662708792403</v>
+        <v>1.058538146284358</v>
       </c>
       <c r="N18">
-        <v>1.012723357261599</v>
+        <v>1.017316773986278</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000061118681826</v>
+        <v>1.034080061150056</v>
       </c>
       <c r="D19">
-        <v>1.017792928698682</v>
+        <v>1.03699689310288</v>
       </c>
       <c r="E19">
-        <v>1.018028447667342</v>
+        <v>1.047807114621628</v>
       </c>
       <c r="F19">
-        <v>1.022535431376613</v>
+        <v>1.055348129630816</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043471349052489</v>
+        <v>1.038429274322487</v>
       </c>
       <c r="J19">
-        <v>1.026987203491718</v>
+        <v>1.040168513454391</v>
       </c>
       <c r="K19">
-        <v>1.031248506198144</v>
+        <v>1.040303112573634</v>
       </c>
       <c r="L19">
-        <v>1.031480162539066</v>
+        <v>1.051076824798493</v>
       </c>
       <c r="M19">
-        <v>1.035913669712647</v>
+        <v>1.058592857427536</v>
       </c>
       <c r="N19">
-        <v>1.012781563359845</v>
+        <v>1.017328788479215</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9986298207331149</v>
+        <v>1.033797341345239</v>
       </c>
       <c r="D20">
-        <v>1.016799630924629</v>
+        <v>1.036791968590981</v>
       </c>
       <c r="E20">
-        <v>1.016726848497254</v>
+        <v>1.047528236531238</v>
       </c>
       <c r="F20">
-        <v>1.021106540372433</v>
+        <v>1.055039881186335</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043069045872557</v>
+        <v>1.038365762590431</v>
       </c>
       <c r="J20">
-        <v>1.026213662861495</v>
+        <v>1.040008313862634</v>
       </c>
       <c r="K20">
-        <v>1.030553374146299</v>
+        <v>1.040162744683637</v>
       </c>
       <c r="L20">
-        <v>1.030481817659827</v>
+        <v>1.050861990734835</v>
       </c>
       <c r="M20">
-        <v>1.034788139202903</v>
+        <v>1.058348225203197</v>
       </c>
       <c r="N20">
-        <v>1.012520433473592</v>
+        <v>1.017275054903461</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9939006420591312</v>
+        <v>1.032879205381687</v>
       </c>
       <c r="D21">
-        <v>1.013523826794984</v>
+        <v>1.036126559233949</v>
       </c>
       <c r="E21">
-        <v>1.012434949997457</v>
+        <v>1.046623119852492</v>
       </c>
       <c r="F21">
-        <v>1.016394551523039</v>
+        <v>1.054039496550724</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041729866691736</v>
+        <v>1.038158156289541</v>
       </c>
       <c r="J21">
-        <v>1.023655607068534</v>
+        <v>1.039487550623875</v>
       </c>
       <c r="K21">
-        <v>1.028253437216147</v>
+        <v>1.039706226419023</v>
       </c>
       <c r="L21">
-        <v>1.027184506880144</v>
+        <v>1.050164166446292</v>
       </c>
       <c r="M21">
-        <v>1.031071841423355</v>
+        <v>1.057553767622207</v>
       </c>
       <c r="N21">
-        <v>1.011656793228252</v>
+        <v>1.017100329846623</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.990866571819636</v>
+        <v>1.032302722604943</v>
       </c>
       <c r="D22">
-        <v>1.011427244653355</v>
+        <v>1.03570882785571</v>
       </c>
       <c r="E22">
-        <v>1.009688352306782</v>
+        <v>1.046055229888532</v>
       </c>
       <c r="F22">
-        <v>1.013378784074581</v>
+        <v>1.05341187516882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040863246619007</v>
+        <v>1.038026768430753</v>
       </c>
       <c r="J22">
-        <v>1.022012941226449</v>
+        <v>1.039160179541201</v>
       </c>
       <c r="K22">
-        <v>1.026775674460906</v>
+        <v>1.039419072376574</v>
       </c>
       <c r="L22">
-        <v>1.025070293673223</v>
+        <v>1.049725901627039</v>
       </c>
       <c r="M22">
-        <v>1.028689783478673</v>
+        <v>1.057054932903765</v>
       </c>
       <c r="N22">
-        <v>1.011102142056918</v>
+        <v>1.016990451176634</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9924809036206732</v>
+        <v>1.032608251974719</v>
       </c>
       <c r="D23">
-        <v>1.012542272700826</v>
+        <v>1.035930214094924</v>
       </c>
       <c r="E23">
-        <v>1.011149063166257</v>
+        <v>1.046356165382509</v>
       </c>
       <c r="F23">
-        <v>1.014982681514512</v>
+        <v>1.053744459537061</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041325037063819</v>
+        <v>1.038096500668662</v>
       </c>
       <c r="J23">
-        <v>1.022887082069325</v>
+        <v>1.039333719654926</v>
       </c>
       <c r="K23">
-        <v>1.027562138869665</v>
+        <v>1.03957130940145</v>
       </c>
       <c r="L23">
-        <v>1.02619507123258</v>
+        <v>1.049958187594534</v>
       </c>
       <c r="M23">
-        <v>1.029956981990464</v>
+        <v>1.057319310321979</v>
       </c>
       <c r="N23">
-        <v>1.011397303211262</v>
+        <v>1.017048701874612</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9987081138320179</v>
+        <v>1.033812747208799</v>
       </c>
       <c r="D24">
-        <v>1.016853942801538</v>
+        <v>1.036803134947108</v>
       </c>
       <c r="E24">
-        <v>1.016798014848836</v>
+        <v>1.047543431008092</v>
       </c>
       <c r="F24">
-        <v>1.021184667738113</v>
+        <v>1.055056675675391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043091089648429</v>
+        <v>1.038369228548252</v>
       </c>
       <c r="J24">
-        <v>1.026255984708264</v>
+        <v>1.04001704533893</v>
       </c>
       <c r="K24">
-        <v>1.030591410627278</v>
+        <v>1.040170396097846</v>
       </c>
       <c r="L24">
-        <v>1.030536423361695</v>
+        <v>1.050873697955731</v>
       </c>
       <c r="M24">
-        <v>1.034849697394247</v>
+        <v>1.058361555658788</v>
       </c>
       <c r="N24">
-        <v>1.012534720777915</v>
+        <v>1.017277983782724</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005686137239781</v>
+        <v>1.035213860196015</v>
       </c>
       <c r="D25">
-        <v>1.021704861723057</v>
+        <v>1.03781882785922</v>
       </c>
       <c r="E25">
-        <v>1.023155995568132</v>
+        <v>1.048926314641817</v>
       </c>
       <c r="F25">
-        <v>1.028164049438467</v>
+        <v>1.056585284066963</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045037534835324</v>
+        <v>1.038681956313836</v>
       </c>
       <c r="J25">
-        <v>1.030023643861848</v>
+        <v>1.040810196554881</v>
       </c>
       <c r="K25">
-        <v>1.033975328615638</v>
+        <v>1.040865026027836</v>
       </c>
       <c r="L25">
-        <v>1.035405172988628</v>
+        <v>1.051938155112885</v>
       </c>
       <c r="M25">
-        <v>1.040340339130277</v>
+        <v>1.059573892579644</v>
       </c>
       <c r="N25">
-        <v>1.013806419663162</v>
+        <v>1.017543940572424</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_180/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_180/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036334033533864</v>
+        <v>1.011067492831625</v>
       </c>
       <c r="D2">
-        <v>1.03863106661284</v>
+        <v>1.025459436313206</v>
       </c>
       <c r="E2">
-        <v>1.050033362760966</v>
+        <v>1.028080334981073</v>
       </c>
       <c r="F2">
-        <v>1.057809145830273</v>
+        <v>1.033569202349791</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038928330697977</v>
+        <v>1.046511295659408</v>
       </c>
       <c r="J2">
-        <v>1.041442918201266</v>
+        <v>1.032922142046741</v>
       </c>
       <c r="K2">
-        <v>1.041418550297654</v>
+        <v>1.036575119147668</v>
       </c>
       <c r="L2">
-        <v>1.052788765023705</v>
+        <v>1.039161850977639</v>
       </c>
       <c r="M2">
-        <v>1.060543099951803</v>
+        <v>1.044579865731825</v>
       </c>
       <c r="N2">
-        <v>1.017755959234141</v>
+        <v>1.014784374739798</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037148885291334</v>
+        <v>1.014875242209929</v>
       </c>
       <c r="D3">
-        <v>1.039222024174919</v>
+        <v>1.02812309005077</v>
       </c>
       <c r="E3">
-        <v>1.050839500471663</v>
+        <v>1.03157639357912</v>
       </c>
       <c r="F3">
-        <v>1.058700438476468</v>
+        <v>1.037406518657292</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039105434834454</v>
+        <v>1.047537693416724</v>
       </c>
       <c r="J3">
-        <v>1.041902369288703</v>
+        <v>1.034968446613516</v>
       </c>
       <c r="K3">
-        <v>1.04182013963994</v>
+        <v>1.038408344639746</v>
       </c>
       <c r="L3">
-        <v>1.053407284170311</v>
+        <v>1.041820581702966</v>
       </c>
       <c r="M3">
-        <v>1.061248105452836</v>
+        <v>1.047582142865394</v>
       </c>
       <c r="N3">
-        <v>1.017909832629264</v>
+        <v>1.015474534013467</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037676836105266</v>
+        <v>1.017295271698232</v>
       </c>
       <c r="D4">
-        <v>1.039604957942501</v>
+        <v>1.029818939070823</v>
       </c>
       <c r="E4">
-        <v>1.051362188868775</v>
+        <v>1.033803565821496</v>
       </c>
       <c r="F4">
-        <v>1.059278383898431</v>
+        <v>1.039851099289874</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039219202570195</v>
+        <v>1.048182233762942</v>
       </c>
       <c r="J4">
-        <v>1.042199675442888</v>
+        <v>1.036266676160087</v>
       </c>
       <c r="K4">
-        <v>1.042079840125888</v>
+        <v>1.039570318403678</v>
       </c>
       <c r="L4">
-        <v>1.053807915018418</v>
+        <v>1.043510436618448</v>
       </c>
       <c r="M4">
-        <v>1.061704871101677</v>
+        <v>1.049491219316678</v>
       </c>
       <c r="N4">
-        <v>1.018009363364923</v>
+        <v>1.015912250820534</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03789894944938</v>
+        <v>1.018302472924607</v>
       </c>
       <c r="D5">
-        <v>1.039766071945229</v>
+        <v>1.030525409548058</v>
       </c>
       <c r="E5">
-        <v>1.051582179737425</v>
+        <v>1.034731734117573</v>
       </c>
       <c r="F5">
-        <v>1.059521642128399</v>
+        <v>1.040869882131868</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039266831002108</v>
+        <v>1.0484485894295</v>
       </c>
       <c r="J5">
-        <v>1.042324664227439</v>
+        <v>1.036806413186584</v>
       </c>
       <c r="K5">
-        <v>1.042188979961262</v>
+        <v>1.040053141462384</v>
       </c>
       <c r="L5">
-        <v>1.053976436246721</v>
+        <v>1.044213739518398</v>
       </c>
       <c r="M5">
-        <v>1.061897032526103</v>
+        <v>1.050285972503562</v>
       </c>
       <c r="N5">
-        <v>1.018051197088238</v>
+        <v>1.016094195388213</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03793625275567</v>
+        <v>1.018470998475066</v>
       </c>
       <c r="D6">
-        <v>1.03979313118799</v>
+        <v>1.03064365479349</v>
       </c>
       <c r="E6">
-        <v>1.051619131933181</v>
+        <v>1.034887107621379</v>
       </c>
       <c r="F6">
-        <v>1.059562503202558</v>
+        <v>1.041040425151768</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039274816304753</v>
+        <v>1.048493043842746</v>
       </c>
       <c r="J6">
-        <v>1.042345650432769</v>
+        <v>1.036896687651405</v>
       </c>
       <c r="K6">
-        <v>1.042207302741454</v>
+        <v>1.040133880832359</v>
       </c>
       <c r="L6">
-        <v>1.054004737287767</v>
+        <v>1.04433141563191</v>
       </c>
       <c r="M6">
-        <v>1.061929305267852</v>
+        <v>1.050418962597638</v>
       </c>
       <c r="N6">
-        <v>1.018058220613274</v>
+        <v>1.0161246246212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037679803356991</v>
+        <v>1.017308769557747</v>
       </c>
       <c r="D7">
-        <v>1.039607110252408</v>
+        <v>1.029828404143477</v>
       </c>
       <c r="E7">
-        <v>1.051365127407121</v>
+        <v>1.033815999695572</v>
       </c>
       <c r="F7">
-        <v>1.059281633189875</v>
+        <v>1.039864746998875</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039219839768503</v>
+        <v>1.04818581082045</v>
       </c>
       <c r="J7">
-        <v>1.042201345545697</v>
+        <v>1.036273911680764</v>
       </c>
       <c r="K7">
-        <v>1.042081298609532</v>
+        <v>1.039576792017185</v>
       </c>
       <c r="L7">
-        <v>1.053810166431983</v>
+        <v>1.043519861878822</v>
       </c>
       <c r="M7">
-        <v>1.061707438235271</v>
+        <v>1.049501869298141</v>
       </c>
       <c r="N7">
-        <v>1.018009922385122</v>
+        <v>1.015914690047556</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036609273177214</v>
+        <v>1.012363611191836</v>
       </c>
       <c r="D8">
-        <v>1.038830669646201</v>
+        <v>1.026365473327509</v>
       </c>
       <c r="E8">
-        <v>1.050305579442256</v>
+        <v>1.029269245513623</v>
       </c>
       <c r="F8">
-        <v>1.058110108665586</v>
+        <v>1.034874167881658</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038988355402803</v>
+        <v>1.046862283839972</v>
       </c>
       <c r="J8">
-        <v>1.041598188902388</v>
+        <v>1.033619150689761</v>
       </c>
       <c r="K8">
-        <v>1.041554300588349</v>
+        <v>1.037199768839256</v>
       </c>
       <c r="L8">
-        <v>1.052997711130069</v>
+        <v>1.040066821038809</v>
       </c>
       <c r="M8">
-        <v>1.060781238760307</v>
+        <v>1.045601591752076</v>
       </c>
       <c r="N8">
-        <v>1.017807968568105</v>
+        <v>1.015019483154327</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034728201156323</v>
+        <v>1.003298984806366</v>
       </c>
       <c r="D9">
-        <v>1.037466731596302</v>
+        <v>1.020043113294353</v>
       </c>
       <c r="E9">
-        <v>1.048446749486801</v>
+        <v>1.020977546844855</v>
       </c>
       <c r="F9">
-        <v>1.056055159826786</v>
+        <v>1.025772786849474</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038574121112113</v>
+        <v>1.044375881692928</v>
       </c>
       <c r="J9">
-        <v>1.040535486386607</v>
+        <v>1.028735782858874</v>
       </c>
       <c r="K9">
-        <v>1.040624532118932</v>
+        <v>1.032819164395039</v>
       </c>
       <c r="L9">
-        <v>1.051569251894725</v>
+        <v>1.033739205471849</v>
       </c>
       <c r="M9">
-        <v>1.059153673683926</v>
+        <v>1.038461113387647</v>
       </c>
       <c r="N9">
-        <v>1.017451847765995</v>
+        <v>1.013371780325615</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033477844526655</v>
+        <v>0.9969982960279236</v>
       </c>
       <c r="D10">
-        <v>1.036560401690827</v>
+        <v>1.015668432451022</v>
       </c>
       <c r="E10">
-        <v>1.047213176459441</v>
+        <v>1.015244675786214</v>
       </c>
       <c r="F10">
-        <v>1.054691650001937</v>
+        <v>1.019479358210149</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03829375168985</v>
+        <v>1.042608719720518</v>
       </c>
       <c r="J10">
-        <v>1.039827184824818</v>
+        <v>1.025331516386833</v>
       </c>
       <c r="K10">
-        <v>1.040003999210201</v>
+        <v>1.029760436166754</v>
       </c>
       <c r="L10">
-        <v>1.050619184320068</v>
+        <v>1.029344032094418</v>
       </c>
       <c r="M10">
-        <v>1.058071768397853</v>
+        <v>1.033505593677102</v>
       </c>
       <c r="N10">
-        <v>1.017214292009874</v>
+        <v>1.012222622489444</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032937323311209</v>
+        <v>0.9942037220001678</v>
       </c>
       <c r="D11">
-        <v>1.036168675654407</v>
+        <v>1.013733477464915</v>
       </c>
       <c r="E11">
-        <v>1.046680389272509</v>
+        <v>1.012709608552014</v>
       </c>
       <c r="F11">
-        <v>1.054102791402141</v>
+        <v>1.016696111719469</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038171358226204</v>
+        <v>1.041816126692199</v>
       </c>
       <c r="J11">
-        <v>1.039520537825916</v>
+        <v>1.023819636888745</v>
       </c>
       <c r="K11">
-        <v>1.039735154013636</v>
+        <v>1.028400966053473</v>
       </c>
       <c r="L11">
-        <v>1.050208345245738</v>
+        <v>1.027395755576337</v>
       </c>
       <c r="M11">
-        <v>1.057604057189818</v>
+        <v>1.031309886085576</v>
       </c>
       <c r="N11">
-        <v>1.017111399963826</v>
+        <v>1.011712176142472</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032736685324942</v>
+        <v>0.9931552543372498</v>
       </c>
       <c r="D12">
-        <v>1.03602328126233</v>
+        <v>1.013008385094744</v>
       </c>
       <c r="E12">
-        <v>1.046482694387483</v>
+        <v>1.011759690029778</v>
       </c>
       <c r="F12">
-        <v>1.053884298013594</v>
+        <v>1.015653141297148</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038125747566546</v>
+        <v>1.04151747803258</v>
       </c>
       <c r="J12">
-        <v>1.039406644603453</v>
+        <v>1.023252147856192</v>
       </c>
       <c r="K12">
-        <v>1.039635271590648</v>
+        <v>1.02789053758563</v>
       </c>
       <c r="L12">
-        <v>1.05005582501328</v>
+        <v>1.026665008404035</v>
       </c>
       <c r="M12">
-        <v>1.057430444473538</v>
+        <v>1.030486473130414</v>
       </c>
       <c r="N12">
-        <v>1.017073177417809</v>
+        <v>1.011520567655148</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032779716687396</v>
+        <v>0.9933806344615592</v>
       </c>
       <c r="D13">
-        <v>1.036054463841747</v>
+        <v>1.013164212029828</v>
       </c>
       <c r="E13">
-        <v>1.046525091258022</v>
+        <v>1.011963831619767</v>
       </c>
       <c r="F13">
-        <v>1.053931154924291</v>
+        <v>1.015877282868388</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038135537906378</v>
+        <v>1.041581733380146</v>
       </c>
       <c r="J13">
-        <v>1.039431074652809</v>
+        <v>1.023374147429026</v>
       </c>
       <c r="K13">
-        <v>1.039656697655477</v>
+        <v>1.028000276658648</v>
       </c>
       <c r="L13">
-        <v>1.050088537308036</v>
+        <v>1.02682208093125</v>
       </c>
       <c r="M13">
-        <v>1.057467679711146</v>
+        <v>1.030663457757945</v>
       </c>
       <c r="N13">
-        <v>1.017081376450702</v>
+        <v>1.011561760351238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032920735735246</v>
+        <v>0.994117271105785</v>
       </c>
       <c r="D14">
-        <v>1.036156655052159</v>
+        <v>1.013673672424098</v>
       </c>
       <c r="E14">
-        <v>1.04666404353798</v>
+        <v>1.012631259113995</v>
       </c>
       <c r="F14">
-        <v>1.054084725866607</v>
+        <v>1.016610088555749</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038167591055572</v>
+        <v>1.041791527647953</v>
       </c>
       <c r="J14">
-        <v>1.03951112318306</v>
+        <v>1.023772849994746</v>
       </c>
       <c r="K14">
-        <v>1.039726898129675</v>
+        <v>1.028358886466263</v>
       </c>
       <c r="L14">
-        <v>1.050195736159226</v>
+        <v>1.027335497752569</v>
       </c>
       <c r="M14">
-        <v>1.057589703931103</v>
+        <v>1.031241984187629</v>
       </c>
       <c r="N14">
-        <v>1.01710824055223</v>
+        <v>1.011696379094803</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033007640252857</v>
+        <v>0.9945697394652566</v>
       </c>
       <c r="D15">
-        <v>1.036219633072918</v>
+        <v>1.013986716772101</v>
       </c>
       <c r="E15">
-        <v>1.046749683979199</v>
+        <v>1.013041374571164</v>
       </c>
       <c r="F15">
-        <v>1.054179377181573</v>
+        <v>1.017060369307577</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038187320431631</v>
+        <v>1.041920222463347</v>
       </c>
       <c r="J15">
-        <v>1.039560444972003</v>
+        <v>1.024017713641619</v>
       </c>
       <c r="K15">
-        <v>1.039770148167252</v>
+        <v>1.028579108054102</v>
       </c>
       <c r="L15">
-        <v>1.050261796047185</v>
+        <v>1.027650884966826</v>
       </c>
       <c r="M15">
-        <v>1.057664902510058</v>
+        <v>1.031597385848402</v>
       </c>
       <c r="N15">
-        <v>1.017124791914632</v>
+        <v>1.011779054020663</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033513736068996</v>
+        <v>0.9971823254066933</v>
       </c>
       <c r="D16">
-        <v>1.036586414598464</v>
+        <v>1.015795970662292</v>
       </c>
       <c r="E16">
-        <v>1.047248564570989</v>
+        <v>1.015411778929315</v>
       </c>
       <c r="F16">
-        <v>1.054730763440293</v>
+        <v>1.019662813276068</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038301853708245</v>
+        <v>1.042660733478882</v>
       </c>
       <c r="J16">
-        <v>1.039847537186017</v>
+        <v>1.0254310389732</v>
       </c>
       <c r="K16">
-        <v>1.040021838518751</v>
+        <v>1.029849905119397</v>
       </c>
       <c r="L16">
-        <v>1.050646462005564</v>
+        <v>1.029472357481965</v>
       </c>
       <c r="M16">
-        <v>1.058102825029851</v>
+        <v>1.03365023596851</v>
       </c>
       <c r="N16">
-        <v>1.01722112004898</v>
+        <v>1.012256222028231</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033831436490975</v>
+        <v>0.9988030469190428</v>
       </c>
       <c r="D17">
-        <v>1.036816681213555</v>
+        <v>1.01691980129298</v>
       </c>
       <c r="E17">
-        <v>1.047561864166889</v>
+        <v>1.016884311480878</v>
       </c>
       <c r="F17">
-        <v>1.055077049919294</v>
+        <v>1.021279405136629</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038373432411392</v>
+        <v>1.043117812728298</v>
       </c>
       <c r="J17">
-        <v>1.040027637436918</v>
+        <v>1.026307300104054</v>
       </c>
       <c r="K17">
-        <v>1.04017967784993</v>
+        <v>1.030637529310918</v>
       </c>
       <c r="L17">
-        <v>1.050887900224841</v>
+        <v>1.030602635379041</v>
       </c>
       <c r="M17">
-        <v>1.058377727198678</v>
+        <v>1.03492434026402</v>
       </c>
       <c r="N17">
-        <v>1.01728153675678</v>
+        <v>1.012552044126693</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034016831668549</v>
+        <v>0.9997420193834698</v>
       </c>
       <c r="D18">
-        <v>1.036951061259334</v>
+        <v>1.017571404397949</v>
       </c>
       <c r="E18">
-        <v>1.047744737423374</v>
+        <v>1.017738156044528</v>
       </c>
       <c r="F18">
-        <v>1.055279182395348</v>
+        <v>1.022216754174193</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038415087330198</v>
+        <v>1.043381784600002</v>
       </c>
       <c r="J18">
-        <v>1.040132691822104</v>
+        <v>1.02681477645948</v>
       </c>
       <c r="K18">
-        <v>1.040271728271274</v>
+        <v>1.0310935722313</v>
       </c>
       <c r="L18">
-        <v>1.051028779671404</v>
+        <v>1.031257572602898</v>
       </c>
       <c r="M18">
-        <v>1.058538146284358</v>
+        <v>1.035662708792403</v>
       </c>
       <c r="N18">
-        <v>1.017316773986278</v>
+        <v>1.012723357261599</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034080061150056</v>
+        <v>1.000061118681827</v>
       </c>
       <c r="D19">
-        <v>1.03699689310288</v>
+        <v>1.017792928698682</v>
       </c>
       <c r="E19">
-        <v>1.047807114621628</v>
+        <v>1.018028447667342</v>
       </c>
       <c r="F19">
-        <v>1.055348129630816</v>
+        <v>1.022535431376613</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038429274322487</v>
+        <v>1.043471349052489</v>
       </c>
       <c r="J19">
-        <v>1.040168513454391</v>
+        <v>1.026987203491718</v>
       </c>
       <c r="K19">
-        <v>1.040303112573634</v>
+        <v>1.031248506198144</v>
       </c>
       <c r="L19">
-        <v>1.051076824798493</v>
+        <v>1.031480162539067</v>
       </c>
       <c r="M19">
-        <v>1.058592857427536</v>
+        <v>1.035913669712647</v>
       </c>
       <c r="N19">
-        <v>1.017328788479215</v>
+        <v>1.012781563359845</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033797341345239</v>
+        <v>0.9986298207331151</v>
       </c>
       <c r="D20">
-        <v>1.036791968590981</v>
+        <v>1.016799630924629</v>
       </c>
       <c r="E20">
-        <v>1.047528236531238</v>
+        <v>1.016726848497254</v>
       </c>
       <c r="F20">
-        <v>1.055039881186335</v>
+        <v>1.021106540372433</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038365762590431</v>
+        <v>1.043069045872557</v>
       </c>
       <c r="J20">
-        <v>1.040008313862634</v>
+        <v>1.026213662861496</v>
       </c>
       <c r="K20">
-        <v>1.040162744683637</v>
+        <v>1.0305533741463</v>
       </c>
       <c r="L20">
-        <v>1.050861990734835</v>
+        <v>1.030481817659827</v>
       </c>
       <c r="M20">
-        <v>1.058348225203197</v>
+        <v>1.034788139202903</v>
       </c>
       <c r="N20">
-        <v>1.017275054903461</v>
+        <v>1.012520433473592</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032879205381687</v>
+        <v>0.993900642059131</v>
       </c>
       <c r="D21">
-        <v>1.036126559233949</v>
+        <v>1.013523826794983</v>
       </c>
       <c r="E21">
-        <v>1.046623119852492</v>
+        <v>1.012434949997457</v>
       </c>
       <c r="F21">
-        <v>1.054039496550724</v>
+        <v>1.016394551523039</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038158156289541</v>
+        <v>1.041729866691735</v>
       </c>
       <c r="J21">
-        <v>1.039487550623875</v>
+        <v>1.023655607068533</v>
       </c>
       <c r="K21">
-        <v>1.039706226419023</v>
+        <v>1.028253437216147</v>
       </c>
       <c r="L21">
-        <v>1.050164166446292</v>
+        <v>1.027184506880143</v>
       </c>
       <c r="M21">
-        <v>1.057553767622207</v>
+        <v>1.031071841423354</v>
       </c>
       <c r="N21">
-        <v>1.017100329846623</v>
+        <v>1.011656793228252</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032302722604943</v>
+        <v>0.990866571819635</v>
       </c>
       <c r="D22">
-        <v>1.03570882785571</v>
+        <v>1.011427244653354</v>
       </c>
       <c r="E22">
-        <v>1.046055229888532</v>
+        <v>1.009688352306781</v>
       </c>
       <c r="F22">
-        <v>1.05341187516882</v>
+        <v>1.01337878407458</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038026768430753</v>
+        <v>1.040863246619006</v>
       </c>
       <c r="J22">
-        <v>1.039160179541201</v>
+        <v>1.022012941226448</v>
       </c>
       <c r="K22">
-        <v>1.039419072376574</v>
+        <v>1.026775674460905</v>
       </c>
       <c r="L22">
-        <v>1.049725901627039</v>
+        <v>1.025070293673222</v>
       </c>
       <c r="M22">
-        <v>1.057054932903765</v>
+        <v>1.028689783478672</v>
       </c>
       <c r="N22">
-        <v>1.016990451176634</v>
+        <v>1.011102142056917</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032608251974719</v>
+        <v>0.9924809036206735</v>
       </c>
       <c r="D23">
-        <v>1.035930214094924</v>
+        <v>1.012542272700826</v>
       </c>
       <c r="E23">
-        <v>1.046356165382509</v>
+        <v>1.011149063166258</v>
       </c>
       <c r="F23">
-        <v>1.053744459537061</v>
+        <v>1.014982681514512</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038096500668662</v>
+        <v>1.04132503706382</v>
       </c>
       <c r="J23">
-        <v>1.039333719654926</v>
+        <v>1.022887082069326</v>
       </c>
       <c r="K23">
-        <v>1.03957130940145</v>
+        <v>1.027562138869665</v>
       </c>
       <c r="L23">
-        <v>1.049958187594534</v>
+        <v>1.026195071232581</v>
       </c>
       <c r="M23">
-        <v>1.057319310321979</v>
+        <v>1.029956981990465</v>
       </c>
       <c r="N23">
-        <v>1.017048701874612</v>
+        <v>1.011397303211262</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033812747208799</v>
+        <v>0.9987081138320184</v>
       </c>
       <c r="D24">
-        <v>1.036803134947108</v>
+        <v>1.016853942801538</v>
       </c>
       <c r="E24">
-        <v>1.047543431008092</v>
+        <v>1.016798014848836</v>
       </c>
       <c r="F24">
-        <v>1.055056675675391</v>
+        <v>1.021184667738113</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038369228548252</v>
+        <v>1.043091089648429</v>
       </c>
       <c r="J24">
-        <v>1.04001704533893</v>
+        <v>1.026255984708264</v>
       </c>
       <c r="K24">
-        <v>1.040170396097846</v>
+        <v>1.030591410627278</v>
       </c>
       <c r="L24">
-        <v>1.050873697955731</v>
+        <v>1.030536423361695</v>
       </c>
       <c r="M24">
-        <v>1.058361555658788</v>
+        <v>1.034849697394247</v>
       </c>
       <c r="N24">
-        <v>1.017277983782724</v>
+        <v>1.012534720777915</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035213860196015</v>
+        <v>1.005686137239781</v>
       </c>
       <c r="D25">
-        <v>1.03781882785922</v>
+        <v>1.021704861723057</v>
       </c>
       <c r="E25">
-        <v>1.048926314641817</v>
+        <v>1.023155995568133</v>
       </c>
       <c r="F25">
-        <v>1.056585284066963</v>
+        <v>1.028164049438467</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038681956313836</v>
+        <v>1.045037534835324</v>
       </c>
       <c r="J25">
-        <v>1.040810196554881</v>
+        <v>1.030023643861848</v>
       </c>
       <c r="K25">
-        <v>1.040865026027836</v>
+        <v>1.033975328615638</v>
       </c>
       <c r="L25">
-        <v>1.051938155112885</v>
+        <v>1.035405172988628</v>
       </c>
       <c r="M25">
-        <v>1.059573892579644</v>
+        <v>1.040340339130277</v>
       </c>
       <c r="N25">
-        <v>1.017543940572424</v>
+        <v>1.013806419663162</v>
       </c>
     </row>
   </sheetData>
